--- a/data/extracted_data/raw_round2/data/Pitcher_etal_2001_Fig6.xlsx
+++ b/data/extracted_data/raw_round2/data/Pitcher_etal_2001_Fig6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3d9723b3edd6c224/biotoxin_review/hab_depuration/data/extracted_data/raw_round2/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{0B16FE07-221D-D840-B841-2599CD22B64B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3590A24D-736C-2A4A-8AFD-48C715EB715C}"/>
+  <xr:revisionPtr revIDLastSave="39" documentId="13_ncr:1_{0B16FE07-221D-D840-B841-2599CD22B64B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A3BF3FA5-9AB5-2448-A9C7-3EDD91E1B640}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" xr2:uid="{F928CC5C-3E6E-1449-8E02-0D480F6338FA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="10">
   <si>
     <t>treatment</t>
   </si>
@@ -60,6 +60,12 @@
   </si>
   <si>
     <t>Depuration</t>
+  </si>
+  <si>
+    <t>event</t>
+  </si>
+  <si>
+    <t>Uptake</t>
   </si>
 </sst>
 </file>
@@ -412,608 +418,688 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B53EB014-23E4-B74A-A325-0ABCC4ED6F72}">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="28.83203125" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="28.83203125" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="3" max="3" width="28.83203125" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="1">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1">
         <v>36293</v>
       </c>
-      <c r="D2">
-        <f>$C2-$C$2</f>
+      <c r="E2">
+        <f>$D2-$D$2</f>
         <v>0</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>41.895673883165699</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1">
         <v>36297</v>
       </c>
-      <c r="D3">
-        <f t="shared" ref="D3:D33" si="0">$C3-$C$2</f>
+      <c r="E3">
+        <f t="shared" ref="E3:E32" si="0">$D3-$D$2</f>
         <v>4</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>98.304706905899593</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1">
         <v>36304</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>28.960143237211199</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1</v>
       </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="1">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="1">
         <v>36308</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>83.547239279274507</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1</v>
       </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="1">
-        <v>36308</v>
-      </c>
-      <c r="D6">
-        <f t="shared" si="0"/>
-        <v>15</v>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="1">
+        <v>36325</v>
       </c>
       <c r="E6">
-        <v>242.086824950509</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="F6">
+        <v>92.381747342672099</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>1</v>
       </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="1">
-        <v>36325</v>
-      </c>
-      <c r="D7">
-        <f t="shared" si="0"/>
-        <v>32</v>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="1">
+        <v>36333</v>
       </c>
       <c r="E7">
-        <v>92.381747342672099</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="F7">
+        <v>86.778347980682895</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>1</v>
       </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="1">
-        <v>36333</v>
-      </c>
-      <c r="D8">
-        <f t="shared" si="0"/>
-        <v>40</v>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="1">
+        <v>36353</v>
       </c>
       <c r="E8">
-        <v>86.778347980682895</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F8">
+        <v>181.19063410205601</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>1</v>
       </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="1">
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="1">
+        <v>36362</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>69</v>
+      </c>
+      <c r="F9">
+        <v>124.55524593677799</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="1">
+        <v>36376</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>83</v>
+      </c>
+      <c r="F10">
+        <v>89.712088161494805</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="1">
+        <v>36391</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>98</v>
+      </c>
+      <c r="F11">
+        <v>60.312549647580703</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="1">
+        <v>36404</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>111</v>
+      </c>
+      <c r="F12">
+        <v>264.147574676266</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="1">
+        <v>36419</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>126</v>
+      </c>
+      <c r="F13">
+        <v>152.76087203217699</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="1">
+        <v>36434</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>141</v>
+      </c>
+      <c r="F14">
+        <v>68.703224098147601</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="1">
+        <v>36448</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>155</v>
+      </c>
+      <c r="F15">
+        <v>108.55504419422699</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="1">
+        <v>36462</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>169</v>
+      </c>
+      <c r="F16">
+        <v>299.627633685962</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="1">
+        <v>36444</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>151</v>
+      </c>
+      <c r="F17">
+        <v>268.45497988878901</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="1">
+        <v>36496</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>203</v>
+      </c>
+      <c r="F18">
+        <v>84.070962942414894</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="1">
+        <v>36511</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>218</v>
+      </c>
+      <c r="F19">
+        <v>127.55334199145101</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="1">
+        <v>36340</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="F20">
+        <v>121.27975387408701</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="1">
         <v>36353</v>
       </c>
-      <c r="D9">
+      <c r="E21">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="E9">
-        <v>181.19063410205601</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="1">
+      <c r="F21">
+        <v>113.778965817246</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="1">
         <v>36362</v>
       </c>
-      <c r="D10">
+      <c r="E22">
         <f t="shared" si="0"/>
         <v>69</v>
       </c>
-      <c r="E10">
-        <v>124.55524593677799</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="1">
+      <c r="F22">
+        <v>295.82619879206601</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="1">
         <v>36376</v>
       </c>
-      <c r="D11">
+      <c r="E23">
         <f t="shared" si="0"/>
         <v>83</v>
       </c>
-      <c r="E11">
-        <v>89.712088161494805</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="1">
+      <c r="F23">
+        <v>199.023868665598</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="1">
         <v>36391</v>
       </c>
-      <c r="D12">
+      <c r="E24">
         <f t="shared" si="0"/>
         <v>98</v>
       </c>
-      <c r="E12">
-        <v>60.312549647580703</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="1">
+      <c r="F24">
+        <v>122.25396865425</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="1">
         <v>36404</v>
       </c>
-      <c r="D13">
+      <c r="E25">
         <f t="shared" si="0"/>
         <v>111</v>
       </c>
-      <c r="E13">
-        <v>264.147574676266</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>1</v>
-      </c>
-      <c r="B14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="1">
+      <c r="F25">
+        <v>850.815720788308</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="1">
         <v>36419</v>
       </c>
-      <c r="D14">
+      <c r="E26">
         <f t="shared" si="0"/>
         <v>126</v>
       </c>
-      <c r="E14">
-        <v>152.76087203217699</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="1">
+      <c r="F26">
+        <v>47.092965489414603</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="1">
         <v>36434</v>
       </c>
-      <c r="D15">
+      <c r="E27">
         <f t="shared" si="0"/>
         <v>141</v>
       </c>
-      <c r="E15">
-        <v>68.703224098147601</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>1</v>
-      </c>
-      <c r="B16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="1">
+      <c r="F27">
+        <v>75.995410356958104</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="1">
         <v>36448</v>
       </c>
-      <c r="D16">
+      <c r="E28">
         <f t="shared" si="0"/>
         <v>155</v>
       </c>
-      <c r="E16">
-        <v>108.55504419422699</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="1">
+      <c r="F28">
+        <v>83.052364800968206</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="1">
         <v>36462</v>
       </c>
-      <c r="D17">
+      <c r="E29">
         <f t="shared" si="0"/>
         <v>169</v>
       </c>
-      <c r="E17">
-        <v>299.627633685962</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>1</v>
-      </c>
-      <c r="B18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="1">
+      <c r="F29">
+        <v>115.60756030210899</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>2</v>
+      </c>
+      <c r="B30">
+        <v>3</v>
+      </c>
+      <c r="C30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="1">
         <v>36444</v>
       </c>
-      <c r="D18">
+      <c r="E30">
         <f t="shared" si="0"/>
         <v>151</v>
       </c>
-      <c r="E18">
-        <v>268.45497988878901</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="1">
+      <c r="F30">
+        <v>284.856851050952</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31">
+        <v>3</v>
+      </c>
+      <c r="C31" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="1">
         <v>36496</v>
       </c>
-      <c r="D19">
+      <c r="E31">
         <f t="shared" si="0"/>
         <v>203</v>
       </c>
-      <c r="E19">
-        <v>84.070962942414894</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="1">
+      <c r="F31">
+        <v>155.130943524694</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>2</v>
+      </c>
+      <c r="B32">
+        <v>3</v>
+      </c>
+      <c r="C32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="1">
         <v>36511</v>
       </c>
-      <c r="D20">
+      <c r="E32">
         <f t="shared" si="0"/>
         <v>218</v>
       </c>
-      <c r="E20">
-        <v>127.55334199145101</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>2</v>
-      </c>
-      <c r="B21" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="1">
-        <v>36340</v>
-      </c>
-      <c r="D21">
-        <f t="shared" si="0"/>
-        <v>47</v>
-      </c>
-      <c r="E21">
-        <v>121.27975387408701</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>2</v>
-      </c>
-      <c r="B22" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="1">
-        <v>36353</v>
-      </c>
-      <c r="D22">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="E22">
-        <v>113.778965817246</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>2</v>
-      </c>
-      <c r="B23" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="1">
-        <v>36362</v>
-      </c>
-      <c r="D23">
-        <f t="shared" si="0"/>
-        <v>69</v>
-      </c>
-      <c r="E23">
-        <v>295.82619879206601</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>2</v>
-      </c>
-      <c r="B24" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="1">
-        <v>36376</v>
-      </c>
-      <c r="D24">
-        <f t="shared" si="0"/>
-        <v>83</v>
-      </c>
-      <c r="E24">
-        <v>199.023868665598</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>2</v>
-      </c>
-      <c r="B25" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="1">
-        <v>36391</v>
-      </c>
-      <c r="D25">
-        <f t="shared" si="0"/>
-        <v>98</v>
-      </c>
-      <c r="E25">
-        <v>122.25396865425</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>2</v>
-      </c>
-      <c r="B26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" s="1">
-        <v>36404</v>
-      </c>
-      <c r="D26">
-        <f t="shared" si="0"/>
-        <v>111</v>
-      </c>
-      <c r="E26">
-        <v>850.815720788308</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>2</v>
-      </c>
-      <c r="B27" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" s="1">
-        <v>36419</v>
-      </c>
-      <c r="D27">
-        <f t="shared" si="0"/>
-        <v>126</v>
-      </c>
-      <c r="E27">
-        <v>47.092965489414603</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>2</v>
-      </c>
-      <c r="B28" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" s="1">
-        <v>36434</v>
-      </c>
-      <c r="D28">
-        <f t="shared" si="0"/>
-        <v>141</v>
-      </c>
-      <c r="E28">
-        <v>75.995410356958104</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>2</v>
-      </c>
-      <c r="B29" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29" s="1">
-        <v>36448</v>
-      </c>
-      <c r="D29">
-        <f t="shared" si="0"/>
-        <v>155</v>
-      </c>
-      <c r="E29">
-        <v>83.052364800968206</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>2</v>
-      </c>
-      <c r="B30" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30" s="1">
-        <v>36462</v>
-      </c>
-      <c r="D30">
-        <f t="shared" si="0"/>
-        <v>169</v>
-      </c>
-      <c r="E30">
-        <v>115.60756030210899</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>2</v>
-      </c>
-      <c r="B31" t="s">
-        <v>7</v>
-      </c>
-      <c r="C31" s="1">
-        <v>36444</v>
-      </c>
-      <c r="D31">
-        <f t="shared" si="0"/>
-        <v>151</v>
-      </c>
-      <c r="E31">
-        <v>284.856851050952</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>2</v>
-      </c>
-      <c r="B32" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" s="1">
-        <v>36496</v>
-      </c>
-      <c r="D32">
-        <f t="shared" si="0"/>
-        <v>203</v>
-      </c>
-      <c r="E32">
-        <v>155.130943524694</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>2</v>
-      </c>
-      <c r="B33" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33" s="1">
-        <v>36511</v>
-      </c>
-      <c r="D33">
-        <f t="shared" si="0"/>
-        <v>218</v>
-      </c>
-      <c r="E33">
+      <c r="F32">
         <v>92.932101022582401</v>
       </c>
     </row>
